--- a/Technology/Hardware/Qualcomm.xlsx
+++ b/Technology/Hardware/Qualcomm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286D0BA6-4356-DC47-BD44-013E391C279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE7952-F811-804D-A0BC-BD3DE22CCA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2505,12 +2505,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>156.66</v>
-    <v>101.93</v>
-    <v>1.2576000000000001</v>
-    <v>-1.1000000000000001</v>
-    <v>-1.0284E-2</v>
-    <v>0.04</v>
-    <v>3.7789999999999997E-4</v>
+    <v>101.47</v>
+    <v>1.2463</v>
+    <v>0.64</v>
+    <v>5.5289999999999992E-3</v>
     <v>USD</v>
     <v>Qualcomm Incorporated is engaged in the development and commercialization of foundational technologies for the wireless industry. The Company’s segments Qualcomm CDMA Technologies (QCT), Qualcomm Technology Licensing (QTL) and Qualcomm Strategic Initiatives (QSI). QCT segment develops and supplies integrated circuits and system software based on third generation/fourth generation/fifth generation (3G/4G/5G) and other technologies for use in wireless voice and data communications, networking, computing, multimedia and global positioning system (GPS) products. QTL Segment grants licenses or otherwise provides rights to use portions of its intellectual property portfolio, which, among other rights, includes certain patent rights essential to and/or useful in the manufacture, sale and/or use of certain wireless products, including, without limitation, products implementing CDMA2000, WCDMA, LTE and/or OFDMA-based 5G standards and their derivatives. QSI Segment makes strategic investments.</v>
     <v>51000</v>
@@ -2518,26 +2516,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5775 Morehouse Dr, SAN DIEGO, CA, 92121 US</v>
-    <v>107.12</v>
+    <v>116.68</v>
     <v>3</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.999332950778</v>
+    <v>45099.999981897658</v>
     <v>4</v>
-    <v>105.515</v>
-    <v>117928000000</v>
+    <v>114.9121</v>
+    <v>129669600000</v>
     <v>QUALCOMM INCORPORATED</v>
     <v>QUALCOMM INCORPORATED</v>
-    <v>106.95</v>
-    <v>11.2629</v>
-    <v>106.96</v>
-    <v>105.86</v>
-    <v>105.9</v>
+    <v>116.01</v>
+    <v>12.3843</v>
+    <v>115.76</v>
+    <v>116.4</v>
     <v>1114000000</v>
     <v>QCOM</v>
     <v>QUALCOMM INCORPORATED (XNAS:QCOM)</v>
-    <v>5783173</v>
-    <v>7732235</v>
+    <v>4034</v>
+    <v>9536802</v>
     <v>1991</v>
   </rv>
   <rv s="4">
@@ -2581,8 +2578,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2604,7 +2599,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2621,7 +2615,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2632,16 +2626,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2714,19 +2705,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2780,9 +2765,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2790,9 +2772,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3161,10 +3140,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="bottomRight" activeCell="AG117" sqref="AG117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5128,15 +5107,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>2.668054298642534</v>
+        <v>2.9337013574660635</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>9.1162646876932598</v>
+        <v>10.023933209647495</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>17.256072578285046</v>
+        <v>18.974187884108868</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13599,7 +13578,7 @@
       </c>
       <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.2576000000000001</v>
+        <v>1.2463</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13820,7 +13799,7 @@
       </c>
       <c r="AP97" s="37">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.508968000000001E-2</v>
+        <v>9.4603215000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14150,7 +14129,7 @@
       </c>
       <c r="AP100" s="35">
         <f>AP99/AP103</f>
-        <v>0.11604827224346001</v>
+        <v>0.10666089798527884</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14261,7 +14240,7 @@
       </c>
       <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>117928000000</v>
+        <v>129669600000</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14372,7 +14351,7 @@
       </c>
       <c r="AP102" s="35">
         <f>AP101/AP103</f>
-        <v>0.88395172775653996</v>
+        <v>0.89333910201472111</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14483,7 +14462,7 @@
       </c>
       <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>133410000000</v>
+        <v>145151600000</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14738,7 +14717,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>8.7234852598458007E-2</v>
+        <v>8.7435666915723173E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14916,7 +14895,7 @@
       <c r="AL107" s="43"/>
       <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>126081401945.84607</v>
+        <v>125675881321.14021</v>
       </c>
       <c r="AN107" s="47" t="s">
         <v>148</v>
@@ -14947,7 +14926,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>133736677521.95013</v>
+        <v>133331156897.24428</v>
       </c>
       <c r="AN108" s="47" t="s">
         <v>144</v>
@@ -14957,7 +14936,7 @@
       </c>
       <c r="AP108" s="51">
         <f>AP105</f>
-        <v>8.7234852598458007E-2</v>
+        <v>8.7435666915723173E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14972,7 +14951,7 @@
       </c>
       <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>111558173368.51534</v>
+        <v>111199709005.05348</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14999,7 +14978,7 @@
       </c>
       <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>102458173368.51534</v>
+        <v>102099709005.05348</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -15017,7 +14996,7 @@
       </c>
       <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>120.60998300280038</v>
+        <v>120.18801197440091</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -15026,7 +15005,7 @@
       </c>
       <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>105.86</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -15035,7 +15014,7 @@
       </c>
       <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>0.13933481015303584</v>
+        <v>3.2543058199320463E-2</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Qualcomm.xlsx
+++ b/Technology/Hardware/Qualcomm.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE7952-F811-804D-A0BC-BD3DE22CCA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42243515-F932-8841-BE10-6F5610C18539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,97 +917,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1060,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>QCOM</a:t>
+              <a:t>Qualcomm</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1117,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6812356238412996E-2"/>
-          <c:y val="0.11551828400608652"/>
-          <c:w val="0.87666692273122782"/>
-          <c:h val="0.76275300073678476"/>
+          <c:x val="8.2310231023102309E-2"/>
+          <c:y val="0.13019490127662531"/>
+          <c:w val="0.85036303630363042"/>
+          <c:h val="0.67206262528498795"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1174,6 +1156,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AH$3</c:f>
@@ -1284,7 +1374,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E00-7F48-B17A-FBC3C271BCC7}"/>
+              <c16:uniqueId val="{00000000-536E-C046-B189-43AA1104FE48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1293,11 +1383,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1335,117 +1425,225 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AH$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AH$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-11500000</c:v>
+                  <c:v>-17100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2600000</c:v>
+                  <c:v>-8400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3700000</c:v>
+                  <c:v>-4100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22900000</c:v>
+                  <c:v>12100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36100000</c:v>
+                  <c:v>15200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70800000</c:v>
+                  <c:v>30200000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83400000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202032000</c:v>
+                  <c:v>91934000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290566000</c:v>
+                  <c:v>108532000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465115000</c:v>
+                  <c:v>200879000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1440647000</c:v>
+                  <c:v>670211000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-124431000</c:v>
+                  <c:v>-548743000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>855382000</c:v>
+                  <c:v>359677000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1464841000</c:v>
+                  <c:v>827441000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2471000000</c:v>
+                  <c:v>1720000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3009000000</c:v>
+                  <c:v>2143000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3428000000</c:v>
+                  <c:v>2470000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4009000000</c:v>
+                  <c:v>3303000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4282000000</c:v>
+                  <c:v>3160000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2735000000</c:v>
+                  <c:v>1592000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4758000000</c:v>
+                  <c:v>3247000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6567000000</c:v>
+                  <c:v>4260000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8375000000</c:v>
+                  <c:v>6109000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9242000000</c:v>
+                  <c:v>6853000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10366000000</c:v>
+                  <c:v>7967000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7808000000</c:v>
+                  <c:v>5271000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8561000000</c:v>
+                  <c:v>5705000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4976000000</c:v>
+                  <c:v>2466000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2842000000</c:v>
+                  <c:v>-4864000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9509000000</c:v>
+                  <c:v>4386000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7714000000</c:v>
+                  <c:v>5198000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12415000000</c:v>
+                  <c:v>9043000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17200000000</c:v>
+                  <c:v>12936000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E00-7F48-B17A-FBC3C271BCC7}"/>
+              <c16:uniqueId val="{00000001-536E-C046-B189-43AA1104FE48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1454,11 +1652,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1496,9 +1694,117 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AH$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AH$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1606,7 +1912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6E00-7F48-B17A-FBC3C271BCC7}"/>
+              <c16:uniqueId val="{00000002-536E-C046-B189-43AA1104FE48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,11 +1926,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="561703824"/>
-        <c:axId val="561770016"/>
+        <c:axId val="1268640608"/>
+        <c:axId val="1268391104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="561703824"/>
+        <c:axId val="1268640608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1958,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1664,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561770016"/>
+        <c:crossAx val="1268391104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,9 +1978,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561770016"/>
+        <c:axId val="1268391104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1720,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561703824"/>
+        <c:crossAx val="1268640608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,10 +2045,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35699237311355603"/>
-          <c:y val="0.91375668716820113"/>
-          <c:w val="0.30462354218503168"/>
-          <c:h val="5.4398162175399917E-2"/>
+          <c:x val="0.35260965151633267"/>
+          <c:y val="0.91680816847203217"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="5.4139335935233526E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2321,22 +2628,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>37353</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>10459</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7687B30-9A40-7F08-25EB-5E85719F134A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DA18BB-0001-46DD-600B-0AC21EFEE749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,6 +2662,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.8390000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2504,11 +2865,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>156.66</v>
+    <v>154.80000000000001</v>
     <v>101.47</v>
-    <v>1.2463</v>
-    <v>0.64</v>
-    <v>5.5289999999999992E-3</v>
+    <v>1.2301</v>
+    <v>0.97</v>
+    <v>7.816E-3</v>
+    <v>0.12</v>
+    <v>9.5949999999999996E-4</v>
     <v>USD</v>
     <v>Qualcomm Incorporated is engaged in the development and commercialization of foundational technologies for the wireless industry. The Company’s segments Qualcomm CDMA Technologies (QCT), Qualcomm Technology Licensing (QTL) and Qualcomm Strategic Initiatives (QSI). QCT segment develops and supplies integrated circuits and system software based on third generation/fourth generation/fifth generation (3G/4G/5G) and other technologies for use in wireless voice and data communications, networking, computing, multimedia and global positioning system (GPS) products. QTL Segment grants licenses or otherwise provides rights to use portions of its intellectual property portfolio, which, among other rights, includes certain patent rights essential to and/or useful in the manufacture, sale and/or use of certain wireless products, including, without limitation, products implementing CDMA2000, WCDMA, LTE and/or OFDMA-based 5G standards and their derivatives. QSI Segment makes strategic investments.</v>
     <v>51000</v>
@@ -2516,25 +2879,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5775 Morehouse Dr, SAN DIEGO, CA, 92121 US</v>
-    <v>116.68</v>
+    <v>125.98</v>
     <v>3</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999981897658</v>
+    <v>45132.999852279689</v>
     <v>4</v>
-    <v>114.9121</v>
-    <v>129669600000</v>
+    <v>124.2</v>
+    <v>139327980000</v>
     <v>QUALCOMM INCORPORATED</v>
     <v>QUALCOMM INCORPORATED</v>
-    <v>116.01</v>
-    <v>12.3843</v>
-    <v>115.76</v>
-    <v>116.4</v>
+    <v>124.2</v>
+    <v>13.2035</v>
+    <v>124.1</v>
+    <v>125.07</v>
+    <v>125.19</v>
     <v>1114000000</v>
     <v>QCOM</v>
     <v>QUALCOMM INCORPORATED (XNAS:QCOM)</v>
-    <v>4034</v>
-    <v>9536802</v>
+    <v>5592103</v>
+    <v>8207805</v>
     <v>1991</v>
   </rv>
   <rv s="4">
@@ -2578,6 +2942,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2599,6 +2965,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2615,7 +2982,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2626,13 +2993,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2705,13 +3075,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2765,6 +3141,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2772,6 +3151,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3139,11 +3521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF94" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AF81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG117" sqref="AG117"/>
+      <selection pane="bottomRight" activeCell="AM99" sqref="AM99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3256,19 +3638,19 @@
       <c r="AH1" s="8">
         <v>2022</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2023</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="23">
         <v>2024</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="23">
         <v>2025</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="23">
         <v>2026</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3277,112 +3659,112 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
@@ -3494,186 +3876,186 @@
       <c r="AH3" s="1">
         <v>44200000000</v>
       </c>
-      <c r="AI3" s="28">
-        <v>37906000000</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>43233000000</v>
-      </c>
-      <c r="AK3" s="28">
-        <v>43514000000</v>
-      </c>
-      <c r="AL3" s="28">
-        <v>44450000000</v>
-      </c>
-      <c r="AM3" s="28">
-        <v>48390000000</v>
+      <c r="AI3" s="24">
+        <v>36056000000</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>39514000000</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>40511000000</v>
+      </c>
+      <c r="AL3" s="24">
+        <v>42000000000</v>
+      </c>
+      <c r="AM3" s="24">
+        <v>44810000000</v>
       </c>
       <c r="AN3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.9419354838709677</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.56930232558139537</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>0.60995850622406644</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>0.42341678939617089</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>1.1052767718572167</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>1.5757034033665072</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.59698811991232437</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.1760608984219818</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>-0.18807791839024668</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>-0.1617233591301247</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>0.13425475019273936</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>0.30631933569332404</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>0.22902225235453466</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.16250000000000009</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>0.3266349374228803</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>0.17871379218708472</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>0.25600270544470738</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="65">
         <f t="shared" si="0"/>
         <v>-6.515885837372104E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="65">
         <f t="shared" si="0"/>
         <v>5.5203533026113583E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="65">
         <f t="shared" si="0"/>
         <v>0.36084068783550172</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="65">
         <f t="shared" si="0"/>
         <v>0.27839807448017662</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="65">
         <f t="shared" si="0"/>
         <v>0.30045499712358148</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="65">
         <f t="shared" si="0"/>
         <v>6.5189415265824779E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="65">
         <f t="shared" si="0"/>
         <v>-4.5531770302412511E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="65">
         <f t="shared" si="0"/>
         <v>-6.8312171195759608E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="65">
         <f t="shared" si="0"/>
         <v>-5.3621465568480908E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="65">
         <f t="shared" si="0"/>
         <v>1.9783769234219983E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="65">
         <f t="shared" si="0"/>
         <v>6.7789899700862133E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="65">
         <f t="shared" si="0"/>
         <v>-3.056894491822193E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="65">
         <f t="shared" si="0"/>
         <v>0.42645871403680258</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="65">
         <f t="shared" si="0"/>
         <v>0.31680867544539115</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>-0.1423981900452489</v>
+        <v>-0.18425339366515836</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1405318419247612</v>
+        <v>9.590636787219875E-2</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4996646080539566E-3</v>
+        <v>2.5231563496482368E-2</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="0"/>
-        <v>2.1510318518177973E-2</v>
+        <v>3.6755449137271468E-2</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>8.863892013498309E-2</v>
+        <v>6.69047619047618E-2</v>
       </c>
       <c r="AN4" s="17">
         <f>(AH4+AG4+AF4)/3</f>
@@ -3688,7 +4070,7 @@
         <v>0.45178027568679308</v>
       </c>
       <c r="AQ4" s="17">
-        <f>(AH105+AG105+AF105)/3</f>
+        <f>(AH106+AG106+AF106)/3</f>
         <v>0.14709151007480922</v>
       </c>
     </row>
@@ -3900,16 +4282,16 @@
         <v>25565000000</v>
       </c>
       <c r="AN6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AQ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AP6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4028,7 +4410,7 @@
         <v>0.29270000000000002</v>
       </c>
       <c r="AQ7" s="20">
-        <f>AH106/AH3</f>
+        <f>AH107/AH3</f>
         <v>0.15461538461538463</v>
       </c>
     </row>
@@ -4037,16 +4419,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
         <v>49600000</v>
@@ -4138,7 +4520,7 @@
     </row>
     <row r="9" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4273,16 +4655,16 @@
         <v>0.1853846153846154</v>
       </c>
       <c r="AN9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AO9" s="19" t="s">
+      <c r="AP9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AP9" s="19" t="s">
+      <c r="AQ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AQ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4290,103 +4672,103 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN10" s="17">
         <f>AH9</f>
@@ -4402,7 +4784,7 @@
       </c>
       <c r="AQ10" s="20">
         <f>AH89</f>
-        <v>0</v>
+        <v>5.0497737556561083E-2</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4410,103 +4792,103 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -4613,21 +4995,21 @@
         <v>2570000000</v>
       </c>
       <c r="AN12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AO12" s="19" t="s">
+      <c r="AQ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AP12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4828,22 +5210,22 @@
         <v>-21000000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1">
         <v>1013000000</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1">
         <v>114000000</v>
@@ -4876,7 +5258,7 @@
         <v>-28000000</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1">
         <v>-1059000000</v>
@@ -4986,16 +5368,16 @@
         <v>9705000000</v>
       </c>
       <c r="AN15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AQ15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AP15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5101,83 +5483,83 @@
       <c r="AH16" s="1">
         <v>28340000000</v>
       </c>
-      <c r="AN16" s="29">
+      <c r="AN16" s="25">
         <f>(AH35+AG35+AF35+AE35+AD35)/5</f>
         <v>-5.057169034885417E-2</v>
       </c>
-      <c r="AO16" s="30">
+      <c r="AO16" s="31">
         <f>AP101/AH3</f>
-        <v>2.9337013574660635</v>
-      </c>
-      <c r="AP16" s="30">
+        <v>3.152216742081448</v>
+      </c>
+      <c r="AP16" s="31">
         <f>AP101/AH28</f>
-        <v>10.023933209647495</v>
-      </c>
-      <c r="AQ16" s="31">
-        <f>AP101/AH106</f>
-        <v>18.974187884108868</v>
+        <v>10.770561224489796</v>
+      </c>
+      <c r="AQ16" s="33">
+        <f>AP101/AH107</f>
+        <v>20.38747146619842</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1">
         <v>24000000</v>
@@ -5222,7 +5604,7 @@
         <v>490000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5326,10 +5708,19 @@
         <v>1762000000</v>
       </c>
       <c r="AN18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AO18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5432,14 +5823,41 @@
       <c r="AH19" s="10">
         <v>17200000000</v>
       </c>
-      <c r="AN19" s="32">
+      <c r="AI19" s="36">
+        <v>13183000000</v>
+      </c>
+      <c r="AJ19" s="36">
+        <v>15043000000</v>
+      </c>
+      <c r="AK19" s="36">
+        <v>14456000000</v>
+      </c>
+      <c r="AL19" s="36">
+        <v>14988000000</v>
+      </c>
+      <c r="AM19" s="36">
+        <v>16439000000</v>
+      </c>
+      <c r="AN19" s="26">
         <f>AH40-AH56-AH61</f>
         <v>-9100000000</v>
       </c>
+      <c r="AO19" s="31">
+        <f>AP101/AI3</f>
+        <v>3.8642106722875527</v>
+      </c>
+      <c r="AP19" s="32">
+        <f>AP101/AI28</f>
+        <v>15.05109430701091</v>
+      </c>
+      <c r="AQ19" s="33">
+        <f>AP101/AI106</f>
+        <v>13.873143483023002</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5455,7 +5873,7 @@
         <v>5.1891891891891895</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AH20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
         <v>0.57641921397379914</v>
       </c>
       <c r="G20" s="15">
@@ -5570,8 +5988,28 @@
         <f t="shared" si="3"/>
         <v>0.3854208618606525</v>
       </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.23354651162790696</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14109079875597352</v>
+      </c>
+      <c r="AK20" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.9021471780894768E-2</v>
+      </c>
+      <c r="AL20" s="16">
+        <f t="shared" si="3"/>
+        <v>3.680132816823467E-2</v>
+      </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.681078195890036E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5674,8 +6112,34 @@
       <c r="AH21" s="2">
         <v>0.3891</v>
       </c>
+      <c r="AI21" s="37">
+        <f>AI19/AI3</f>
+        <v>0.3656256933658753</v>
+      </c>
+      <c r="AJ21" s="37">
+        <f t="shared" ref="AJ21:AM21" si="4">AJ19/AJ3</f>
+        <v>0.38070051121121629</v>
+      </c>
+      <c r="AK21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.35684135173162845</v>
+      </c>
+      <c r="AL21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.35685714285714287</v>
+      </c>
+      <c r="AM21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.36686007587592057</v>
+      </c>
+      <c r="AP21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5778,11 +6242,19 @@
       <c r="AH22" s="10">
         <v>15860000000</v>
       </c>
-      <c r="AN22" s="33" t="s">
-        <v>91</v>
+      <c r="AN22" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP22" s="34">
+        <f>(-1*AH98)/AP101</f>
+        <v>2.305351731934964E-2</v>
+      </c>
+      <c r="AQ22" s="35">
+        <f>AH107/AP101</f>
+        <v>4.9049731432265077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5886,15 +6358,15 @@
         <v>0.35880000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-1500000</v>
@@ -5990,15 +6462,15 @@
         <v>-862000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10">
         <v>-3500000</v>
@@ -6094,15 +6566,15 @@
         <v>14998000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2">
         <v>-3.2599999999999997E-2</v>
@@ -6198,15 +6670,15 @@
         <v>0.33929999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>600000</v>
@@ -6302,7 +6774,7 @@
         <v>2012000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6405,10 +6877,25 @@
       <c r="AH28" s="11">
         <v>12936000000</v>
       </c>
+      <c r="AI28" s="38">
+        <v>9257000000</v>
+      </c>
+      <c r="AJ28" s="38">
+        <v>10822000000</v>
+      </c>
+      <c r="AK28" s="38">
+        <v>10884000000</v>
+      </c>
+      <c r="AL28" s="38">
+        <v>12426000000</v>
+      </c>
+      <c r="AM28" s="38">
+        <v>14138000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6424,123 +6911,143 @@
         <v>-3.9512195121951219</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AH29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AM29" si="5">(F28/E28)-1</f>
         <v>0.25619834710743805</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98684210526315796</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.30463576158940397</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3778095238095238</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18054256314312433</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85087347510411671</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3363915590977653</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.8187615541971112</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.655456197163335</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3005112920759458</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0786980582301338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24593023255813962</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15258982734484361</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33724696356275308</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.3293975174084176E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.4962025316455696</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0395728643216082</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31198028949799816</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43403755868544591</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12178752660009828</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16255654457901647</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.33839588301744694</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.233731739707828E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.56774758983347939</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9724249797242499</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.9017269736842106</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18513451892384869</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73970757983839941</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43049872829813118</v>
       </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.284400123685838</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16906125094523072</v>
+      </c>
+      <c r="AK29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.7290704121235603E-3</v>
+      </c>
+      <c r="AL29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14167585446527009</v>
+      </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13777563173990015</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6643,8 +7150,28 @@
       <c r="AH30" s="2">
         <v>0.29270000000000002</v>
       </c>
+      <c r="AI30" s="39">
+        <f>AI28/AI3</f>
+        <v>0.25673951630796538</v>
+      </c>
+      <c r="AJ30" s="39">
+        <f t="shared" ref="AJ30:AM30" si="6">AJ28/AJ3</f>
+        <v>0.27387761299792479</v>
+      </c>
+      <c r="AK30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.26866776924785862</v>
+      </c>
+      <c r="AL30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.29585714285714287</v>
+      </c>
+      <c r="AM30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.31550993081901363</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6747,8 +7274,23 @@
       <c r="AH31" s="12">
         <v>11.52</v>
       </c>
+      <c r="AI31" s="40">
+        <v>8.31</v>
+      </c>
+      <c r="AJ31" s="40">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AK31" s="40">
+        <v>9.77</v>
+      </c>
+      <c r="AL31" s="40">
+        <v>11.15</v>
+      </c>
+      <c r="AM31" s="40">
+        <v>12.69</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7062,7 +7604,7 @@
     </row>
     <row r="35" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7070,127 +7612,127 @@
         <v>0.33171929707743919</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AH35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AH35" si="7">(D34-C34)/C34</f>
         <v>7.5863764908397885E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15238095285714287</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.7851240058739158E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13533834605263159</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30669139051213717</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1177271953226997E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7849033234707219E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.834780022173549E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23116752425033235</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.518165377486655E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0584904936578083E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0411093634356362E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4145373614346596E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1343283582089553E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0035419126328217E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0520163646990065E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9492025989367986E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8313253012048199E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.9659294680215183E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9903498190591073E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.956830277942046E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.4669730040206779E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.2805017103762829E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.3757292882147025E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.6028065893837699E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.3404539385847796E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8120805369127517E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.16609706083390294</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.8196721311475408E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0443864229765013E-2</v>
       </c>
     </row>
@@ -7199,103 +7741,103 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="21" x14ac:dyDescent="0.25">
@@ -7303,103 +7845,103 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -7407,22 +7949,22 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1">
         <v>500600000</v>
@@ -7511,28 +8053,28 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>448235000</v>
@@ -7615,22 +8157,22 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1">
         <v>500600000</v>
@@ -7719,22 +8261,22 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1">
         <v>82700000</v>
@@ -7823,22 +8365,22 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1">
         <v>44000000</v>
@@ -7927,22 +8469,22 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1">
         <v>77300000</v>
@@ -8031,22 +8573,22 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10">
         <v>704600000</v>
@@ -8135,22 +8677,22 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1">
         <v>185500000</v>
@@ -8239,52 +8781,52 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>1230000000</v>
@@ -8343,37 +8885,37 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1">
         <v>821834000</v>
@@ -8391,10 +8933,10 @@
         <v>571000000</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1">
         <v>3104000000</v>
@@ -8447,37 +8989,37 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1">
         <v>821834000</v>
@@ -8551,61 +9093,61 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1">
         <v>6673000000</v>
@@ -8638,16 +9180,16 @@
         <v>35000000</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -8655,43 +9197,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1">
         <v>406746000</v>
@@ -8759,22 +9301,22 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1">
         <v>50600000</v>
@@ -8863,22 +9405,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1">
         <v>236100000</v>
@@ -8967,103 +9509,103 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9071,22 +9613,22 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11">
         <v>940700000</v>
@@ -9175,22 +9717,22 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1">
         <v>95800000</v>
@@ -9279,22 +9821,22 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>1000000</v>
@@ -9312,31 +9854,31 @@
         <v>115099000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>102625000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>173000000</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>1086000000</v>
@@ -9345,13 +9887,13 @@
         <v>994000000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1">
         <v>1000000000</v>
@@ -9383,64 +9925,64 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1">
         <v>1443000000</v>
@@ -9449,22 +9991,22 @@
         <v>18000000</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1">
         <v>453000000</v>
@@ -9487,43 +10029,43 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1">
         <v>174271000</v>
@@ -9591,22 +10133,22 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1">
         <v>8200000</v>
@@ -9695,22 +10237,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10">
         <v>105000000</v>
@@ -9799,22 +10341,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>33500000</v>
@@ -9832,46 +10374,46 @@
         <v>795000</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1">
         <v>123302000</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA61" s="1">
         <v>9969000000</v>
@@ -9903,61 +10445,61 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1">
         <v>3464000000</v>
@@ -10007,103 +10549,103 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10111,22 +10653,22 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1">
         <v>2600000</v>
@@ -10215,22 +10757,22 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1">
         <v>36100000</v>
@@ -10319,103 +10861,103 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10423,22 +10965,22 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10">
         <v>141100000</v>
@@ -10527,28 +11069,28 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1">
         <v>7000</v>
@@ -10569,40 +11111,40 @@
         <v>81000</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z68" s="1">
         <v>7736000000</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB68" s="1">
         <v>414000000</v>
@@ -10611,7 +11153,7 @@
         <v>274000000</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE68" s="1">
         <v>343000000</v>
@@ -10620,7 +11162,7 @@
         <v>586000000</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH68" s="1">
         <v>195000000</v>
@@ -10631,22 +11173,22 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1">
         <v>4800000</v>
@@ -10658,7 +11200,7 @@
         <v>117798000</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L69" s="1">
         <v>200879000</v>
@@ -10735,22 +11277,22 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1">
         <v>-66400000</v>
@@ -10839,22 +11381,22 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1">
         <v>861200000</v>
@@ -10911,31 +11453,31 @@
         <v>9874000000</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10943,22 +11485,22 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10">
         <v>799600000</v>
@@ -11047,22 +11589,22 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11">
         <v>940700000</v>
@@ -11151,103 +11693,103 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="21" x14ac:dyDescent="0.25">
@@ -11255,103 +11797,103 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11359,7 +11901,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-8400000</v>
@@ -11463,7 +12005,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>5800000</v>
@@ -11567,16 +12109,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-4000000</v>
@@ -11585,7 +12127,7 @@
         <v>-3000000</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-21531000</v>
@@ -11609,22 +12151,22 @@
         <v>332964000</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1">
         <v>116000000</v>
@@ -11671,64 +12213,64 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1">
         <v>612000000</v>
@@ -11772,138 +12314,138 @@
     </row>
     <row r="80" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AH80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AH80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5681921572195432E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.509126161663435E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4128968150201351E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4438188691385827E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9981877902367201E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.058383766464934E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0035662732444598E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1003095419676103E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8843920464543373E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2722366415358627E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.1506523309676595E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9544181612345826E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5950226244343889E-2</v>
       </c>
     </row>
@@ -11912,7 +12454,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>3200000</v>
@@ -12016,61 +12558,61 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1">
         <v>3083000000</v>
@@ -12120,7 +12662,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-500000</v>
@@ -12218,71 +12760,71 @@
       <c r="AH83" s="1">
         <v>-3137000000</v>
       </c>
-      <c r="AO83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP83" s="63"/>
+      <c r="AO83" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP83" s="68"/>
     </row>
     <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1">
         <v>57000000</v>
@@ -12326,62 +12868,62 @@
       <c r="AH84" s="1">
         <v>1036000000</v>
       </c>
-      <c r="AO84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP84" s="65"/>
+      <c r="AO84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP84" s="69"/>
     </row>
     <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1">
         <v>44000000</v>
@@ -12434,10 +12976,10 @@
       <c r="AH85" s="1">
         <v>-324000000</v>
       </c>
-      <c r="AO85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP85" s="24">
+      <c r="AO85" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP85" s="44">
         <f>AH17</f>
         <v>490000000</v>
       </c>
@@ -12447,7 +12989,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>1400000</v>
@@ -12545,10 +13087,10 @@
       <c r="AH86" s="1">
         <v>255000000</v>
       </c>
-      <c r="AO86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP86" s="24">
+      <c r="AO86" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP86" s="44">
         <f>AH56</f>
         <v>1945000000</v>
       </c>
@@ -12558,7 +13100,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>2000000</v>
@@ -12656,10 +13198,10 @@
       <c r="AH87" s="10">
         <v>9096000000</v>
       </c>
-      <c r="AO87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP87" s="24">
+      <c r="AO87" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP87" s="44">
         <f>AH61</f>
         <v>13537000000</v>
       </c>
@@ -12669,7 +13211,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-6700000</v>
@@ -12726,195 +13268,195 @@
         <v>-1397000000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
+        <v>-583000000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-1302000000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-596000000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>558000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-984000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-291000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-753000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-99000000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-2642000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>1232000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-761000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-1364000000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-1947000000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP88" s="35">
+        <v>-2232000000</v>
+      </c>
+      <c r="AO88" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP88" s="46">
         <f>AP85/(AP86+AP87)</f>
         <v>3.164965766696809E-2</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AH89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.4197120708748621E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.7209302325581389E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.29401304090100772</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.25294550810014726</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.25737196068287638</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26612605971249537</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.780849231884715E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.6050921929465599E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5776812987786804E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1045739775649246E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2611984688329593E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6578452144389319E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0158876310999046E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.8032786885245902E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10153358011634056</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.1017804942864738E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.2210573779731714E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12538143959791778</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.5971582181259603E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11846055863888637</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9847563013973387E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>-2.918257413315203E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.957210649079064E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0986521689885604E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9785214192476563E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2031077523987433E-3</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11852317078641604</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>-5.4196727080767199E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1351707658715443E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.7966087289107987E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8005124232854671E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0497737556561083E-2</v>
+      </c>
+      <c r="AO89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AH89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4197120708748621E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.7209302325581389E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.29401304090100772</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25294550810014726</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25737196068287638</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26612605971249537</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.780849231884715E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.6050921929465599E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5776812987786804E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1045739775649246E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2611984688329593E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6578452144389319E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0158876310999046E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.8032786885245902E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10153358011634056</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.1017804942864738E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.2210573779731714E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12538143959791778</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AO89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP89" s="24">
+      <c r="AP89" s="44">
         <f>AH27</f>
         <v>2012000000</v>
       </c>
@@ -12924,58 +13466,58 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-273668000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-320655000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>-298000000</v>
@@ -13022,10 +13564,10 @@
       <c r="AH90" s="1">
         <v>-4912000000</v>
       </c>
-      <c r="AO90" s="23" t="s">
+      <c r="AO90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AP90" s="24">
+      <c r="AP90" s="44">
         <f>AH25</f>
         <v>14998000000</v>
       </c>
@@ -13035,10 +13577,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-14100000</v>
@@ -13047,7 +13589,7 @@
         <v>-99300000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-84300000</v>
@@ -13122,7 +13664,7 @@
         <v>-5985000000</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1">
         <v>-6213000000</v>
@@ -13133,10 +13675,10 @@
       <c r="AH91" s="1">
         <v>-1414000000</v>
       </c>
-      <c r="AO91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP91" s="35">
+      <c r="AO91" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP91" s="46">
         <f>AP89/AP90</f>
         <v>0.13415122016268835</v>
       </c>
@@ -13146,19 +13688,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>18800000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>98400000</v>
@@ -13244,10 +13786,10 @@
       <c r="AH92" s="1">
         <v>2754000000</v>
       </c>
-      <c r="AO92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP92" s="37">
+      <c r="AO92" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP92" s="46">
         <f>AP88*(1-AP91)</f>
         <v>2.7403817473212938E-2</v>
       </c>
@@ -13257,16 +13799,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-100000</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-16300000</v>
@@ -13355,17 +13897,17 @@
       <c r="AH93" s="1">
         <v>-2232000000</v>
       </c>
-      <c r="AO93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP93" s="65"/>
+      <c r="AO93" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP93" s="69"/>
     </row>
     <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-6700000</v>
@@ -13463,11 +14005,12 @@
       <c r="AH94" s="10">
         <v>-5804000000</v>
       </c>
-      <c r="AO94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP94" s="38">
-        <v>4.095E-2</v>
+      <c r="AO94" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP94" s="47">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.8390000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13475,67 +14018,67 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-1555000000</v>
@@ -13547,7 +14090,7 @@
         <v>-439000000</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1">
         <v>-3083000000</v>
@@ -13573,12 +14116,12 @@
       <c r="AH95" s="1">
         <v>-8892000000</v>
       </c>
-      <c r="AO95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP95" s="39" cm="1">
+      <c r="AO95" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP95" s="48" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.2463</v>
+        <v>1.2301</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13586,7 +14129,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>400000</v>
@@ -13684,10 +14227,10 @@
       <c r="AH96" s="1">
         <v>356000000</v>
       </c>
-      <c r="AO96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP96" s="38">
+      <c r="AO96" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13696,40 +14239,40 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-5773000</v>
@@ -13738,7 +14281,7 @@
         <v>-158488000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-953000000</v>
@@ -13794,12 +14337,12 @@
       <c r="AH97" s="1">
         <v>-3129000000</v>
       </c>
-      <c r="AO97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP97" s="37">
+      <c r="AO97" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP97" s="46">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.4603215000000004E-2</v>
+        <v>9.4494861000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13807,43 +14350,43 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1">
         <v>-134776000</v>
@@ -13905,17 +14448,17 @@
       <c r="AH98" s="1">
         <v>-3212000000</v>
       </c>
-      <c r="AO98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP98" s="65"/>
+      <c r="AO98" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP98" s="69"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>600000</v>
@@ -13957,10 +14500,10 @@
         <v>-12050000</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1">
         <v>403000000</v>
@@ -14013,10 +14556,10 @@
       <c r="AH99" s="1">
         <v>7681000000</v>
       </c>
-      <c r="AO99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP99" s="24">
+      <c r="AO99" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP99" s="44">
         <f>AP86+AP87</f>
         <v>15482000000</v>
       </c>
@@ -14026,7 +14569,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>1000000</v>
@@ -14124,12 +14667,12 @@
       <c r="AH100" s="10">
         <v>-7196000000</v>
       </c>
-      <c r="AO100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP100" s="35">
+      <c r="AO100" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP100" s="46">
         <f>AP99/AP103</f>
-        <v>0.10666089798527884</v>
+        <v>0.1000064724509363</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14137,31 +14680,31 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1">
         <v>-13009000</v>
@@ -14179,13 +14722,13 @@
         <v>-720000</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1">
         <v>2000000</v>
@@ -14235,12 +14778,12 @@
       <c r="AH101" s="1">
         <v>-113000000</v>
       </c>
-      <c r="AO101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP101" s="40" cm="1">
+      <c r="AO101" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP101" s="49" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>129669600000</v>
+        <v>139327980000</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14248,7 +14791,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>1000000</v>
@@ -14346,12 +14889,12 @@
       <c r="AH102" s="10">
         <v>-4017000000</v>
       </c>
-      <c r="AO102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP102" s="35">
+      <c r="AO102" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP102" s="46">
         <f>AP101/AP103</f>
-        <v>0.89333910201472111</v>
+        <v>0.8999935275490637</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14359,7 +14902,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>3800000</v>
@@ -14457,12 +15000,12 @@
       <c r="AH103" s="1">
         <v>7116000000</v>
       </c>
-      <c r="AO103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP103" s="41">
+      <c r="AO103" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP103" s="50">
         <f>AP99+AP101</f>
-        <v>145151600000</v>
+        <v>154809980000</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14470,22 +15013,22 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11">
         <v>45100000</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11">
         <v>110100000</v>
@@ -14568,460 +15111,573 @@
       <c r="AH104" s="11">
         <v>3099000000</v>
       </c>
-      <c r="AO104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP104" s="65"/>
+      <c r="AO104" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP104" s="69"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>164</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AG105" si="10">(B22*(1-$AP$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.63829787234042556</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>3.7922077922077921</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.14363143631436315</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.46445497630331745</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AH105" si="8">(H106/G106)-1</f>
-        <v>3.6343042071197411</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.3305237430167598</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.80576098634595117</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0057649039808452</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>324.11523046092185</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11038170526867308</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.43147237138402916</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.86717756407696611</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.38430280975881637</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.2172284644194731E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21706161137440749</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16549844236760114</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.27798195790177083</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.9666820916242482</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.59663079082826398</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.66550657385924206</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.4497329928024065E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.63979635129401791</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.6222509702458217E-3</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.41417813554920802</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5206117021276595</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.41655735315551667</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.22283287534349239</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0568948891031824</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.3112986404125645</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.96233265259813927</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.20975948196114713</v>
-      </c>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP105" s="26">
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-3154847.3129750639</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-6531697.5596746234</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-38809814.641952261</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-30772062.941725567</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-59150100.013335109</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-300707280.97079611</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-176128975.46339512</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>-363963805.84077877</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>-43489025.336711526</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>222561230.56407523</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-148614667.95572746</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>691401276.30350721</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>1138012376.0501401</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>1824392052.2736366</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>1704915188.6918259</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>1903133217.7623682</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>2085242032.2709694</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>1580615948.7931724</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>5972379383.9178562</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>2160581544.2058945</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>5258755967.4623289</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>5709752767.0356045</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>6178086678.2237635</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>6778158287.7717028</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>3515142552.340312</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>6799687825.0433397</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>1506328710.4947329</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>4895459794.6392851</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>6054462595.0126686</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>3837884117.8823843</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>7649793705.8274441</v>
+      </c>
+      <c r="AH105" s="1">
+        <f>(AH22*(1-$AP$91))+AH77+AH88+AH81</f>
+        <v>5462361648.2197628</v>
+      </c>
+      <c r="AI105" s="28">
+        <f>AH105*(1+$AP$106)</f>
+        <v>5506655664.3366489</v>
+      </c>
+      <c r="AJ105" s="28">
+        <f t="shared" ref="AJ105:AM105" si="11">AI105*(1+$AP$106)</f>
+        <v>5551308858.4044132</v>
+      </c>
+      <c r="AK105" s="28">
+        <f t="shared" si="11"/>
+        <v>5596324142.9790106</v>
+      </c>
+      <c r="AL105" s="28">
+        <f t="shared" si="11"/>
+        <v>5641704454.2341652</v>
+      </c>
+      <c r="AM105" s="28">
+        <f t="shared" si="11"/>
+        <v>5687452752.1528864</v>
+      </c>
+      <c r="AN105" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO105" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP105" s="52">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>8.7435666915723173E-2</v>
+        <v>8.7785322403833813E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-4700000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-7700000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-36900000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-42200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-61800000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-286400000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-191738000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-346233000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1996000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>648930000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>577300000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>826389000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>1543015000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>2136000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>2110000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>2568000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2993000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2161000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>6411000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>2586000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>4307000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>4714000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>7730000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>7702000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>4512000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>6861000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>4003000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>3111000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>6399000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>4407000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>8648000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>6834000000</v>
-      </c>
-      <c r="AI106" s="42">
-        <f>AH106*(1+$AP$106)</f>
-        <v>6990884796.3663464</v>
-      </c>
-      <c r="AJ106" s="42">
-        <f t="shared" ref="AJ106:AM106" si="9">AI106*(1+$AP$106)</f>
-        <v>7151371120.2906256</v>
-      </c>
-      <c r="AK106" s="42">
-        <f t="shared" si="9"/>
-        <v>7315541650.2799387</v>
-      </c>
-      <c r="AL106" s="42">
-        <f t="shared" si="9"/>
-        <v>7483480962.8514481</v>
-      </c>
-      <c r="AM106" s="42">
-        <f t="shared" si="9"/>
-        <v>7655275576.1040649</v>
-      </c>
-      <c r="AN106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AH106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
+        <v>3.7922077922077921</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.14363143631436315</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.46445497630331745</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>3.6343042071197411</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.3305237430167598</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.80576098634595117</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0057649039808452</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>324.11523046092185</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.11038170526867308</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.43147237138402916</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.86717756407696611</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.38430280975881637</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.2172284644194731E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.21706161137440749</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.16549844236760114</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.27798195790177083</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.9666820916242482</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.59663079082826398</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.66550657385924206</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>9.4497329928024065E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.63979635129401791</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.6222509702458217E-3</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.41417813554920802</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.5206117021276595</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.41655735315551667</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.22283287534349239</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.0568948891031824</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.3112986404125645</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.96233265259813927</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.20975948196114713</v>
+      </c>
+      <c r="AI106" s="41">
+        <v>10043000000</v>
+      </c>
+      <c r="AJ106" s="41">
+        <v>10417000000</v>
+      </c>
+      <c r="AK106" s="41">
+        <v>10158000000</v>
+      </c>
+      <c r="AL106" s="41">
+        <v>10697000000</v>
+      </c>
+      <c r="AM106" s="41">
+        <v>11701000000</v>
+      </c>
+      <c r="AN106" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO106" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP106" s="54">
         <f>(SUM(AI4:AM4)/5)</f>
-        <v>2.2956511028145464E-2</v>
+        <v>8.1089497491112043E-3</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="43"/>
-      <c r="AJ107" s="43"/>
-      <c r="AK107" s="43"/>
-      <c r="AL107" s="43"/>
-      <c r="AM107" s="46">
+      <c r="A107" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-4700000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-7700000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-36900000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-42200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-61800000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-286400000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-191738000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-346233000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1996000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>648930000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>577300000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>826389000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1543015000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2136000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>2110000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>2568000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2993000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2161000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>6411000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2586000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4307000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>4714000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>7730000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>7702000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>4512000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>6861000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>4003000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>3111000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>6399000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>4407000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>8648000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>6834000000</v>
+      </c>
+      <c r="AI107" s="29"/>
+      <c r="AJ107" s="29"/>
+      <c r="AK107" s="29"/>
+      <c r="AL107" s="29"/>
+      <c r="AM107" s="64">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>125675881321.14021</v>
-      </c>
-      <c r="AN107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP107" s="49">
-        <v>2.5000000000000001E-2</v>
+        <v>176070859837.42371</v>
+      </c>
+      <c r="AN107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO107" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP107" s="56">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI108" s="46">
-        <f t="shared" ref="AI108:AK108" si="10">AI107+AI106</f>
-        <v>6990884796.3663464</v>
-      </c>
-      <c r="AJ108" s="46">
-        <f t="shared" si="10"/>
-        <v>7151371120.2906256</v>
-      </c>
-      <c r="AK108" s="46">
-        <f t="shared" si="10"/>
-        <v>7315541650.2799387</v>
-      </c>
-      <c r="AL108" s="46">
+      <c r="AI108" s="64">
+        <f t="shared" ref="AI108:AK108" si="13">AI107+AI106</f>
+        <v>10043000000</v>
+      </c>
+      <c r="AJ108" s="64">
+        <f t="shared" si="13"/>
+        <v>10417000000</v>
+      </c>
+      <c r="AK108" s="64">
+        <f t="shared" si="13"/>
+        <v>10158000000</v>
+      </c>
+      <c r="AL108" s="64">
         <f>AL107+AL106</f>
-        <v>7483480962.8514481</v>
-      </c>
-      <c r="AM108" s="46">
+        <v>10697000000</v>
+      </c>
+      <c r="AM108" s="64">
         <f>AM107+AM106</f>
-        <v>133331156897.24428</v>
-      </c>
-      <c r="AN108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP108" s="51">
+        <v>187771859837.42371</v>
+      </c>
+      <c r="AN108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO108" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP108" s="54">
         <f>AP105</f>
-        <v>8.7435666915723173E-2</v>
+        <v>8.7785322403833813E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ109" s="61"/>
+      <c r="AI109" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ109" s="66"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ110" s="40">
+      <c r="AI110" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ110" s="49">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>111199709005.05348</v>
+        <v>156854031620.2843</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ111" s="40">
+      <c r="AI111" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ111" s="49">
         <f>AH40</f>
         <v>6382000000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ112" s="40">
+      <c r="AI112" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ112" s="49">
         <f>AP99</f>
         <v>15482000000</v>
       </c>
     </row>
     <row r="113" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ113" s="40">
+      <c r="AI113" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ113" s="49">
         <f>AJ110+AJ111-AJ112</f>
-        <v>102099709005.05348</v>
+        <v>147754031620.2843</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ114" s="53">
+      <c r="AI114" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ114" s="58">
         <f>AH34*(1+(5*AN16))</f>
         <v>849499940.36676395</v>
       </c>
     </row>
     <row r="115" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ115" s="55">
+      <c r="AI115" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ115" s="60">
         <f>AJ113/AJ114</f>
-        <v>120.18801197440091</v>
+        <v>173.93059681262935</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ116" s="56" cm="1">
+      <c r="AI116" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ116" s="61" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>116.4</v>
+        <v>125.07</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ117" s="58">
+      <c r="AI117" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ117" s="62">
         <f>AJ115/AJ116-1</f>
-        <v>3.2543058199320463E-2</v>
+        <v>0.39066600154017239</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ118" s="59" t="str">
+      <c r="AI118" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ118" s="63" t="str">
         <f>IF(AJ115&gt;AJ116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -15104,8 +15760,9 @@
     <hyperlink ref="AH36" r:id="rId66" tooltip="https://www.sec.gov/Archives/edgar/data/804328/000080432822000021/0000804328-22-000021-index.htm" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="AH74" r:id="rId67" tooltip="https://www.sec.gov/Archives/edgar/data/804328/000080432822000021/0000804328-22-000021-index.htm" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NASDAQGS:QCOM/explorer/revenue_proj" xr:uid="{F8BA263D-0679-6045-B934-B74F2761C2D8}"/>
+    <hyperlink ref="AN106" r:id="rId69" xr:uid="{B8C45764-B043-0941-A247-4F4FEA58ADF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId69"/>
+  <drawing r:id="rId70"/>
 </worksheet>
 </file>